--- a/biology/Médecine/Marc_Gentilini/Marc_Gentilini.xlsx
+++ b/biology/Médecine/Marc_Gentilini/Marc_Gentilini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Gentilini, né le 31 juillet 1929 à Compiègne (Oise), est un professeur de médecine français, spécialiste des maladies infectieuses et tropicales, membre de l'Académie nationale de médecine, président honoraire de la Croix-Rouge française.
 </t>
@@ -511,12 +523,14 @@
           <t>Cursus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'Hôpital de la Pitié Salpêtrière, Marc Gentilini occupe successivement les emplois de professeur de parasitologie, de santé publique et de clinique des maladies infectieuses et tropicales au Pavillon Laveran. C'est du service qu’il dirige que partit le ganglion dans lequel le Pr Luc Montagnier et ses collaborateurs purent identifier le virus du sida[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'Hôpital de la Pitié Salpêtrière, Marc Gentilini occupe successivement les emplois de professeur de parasitologie, de santé publique et de clinique des maladies infectieuses et tropicales au Pavillon Laveran. C'est du service qu’il dirige que partit le ganglion dans lequel le Pr Luc Montagnier et ses collaborateurs purent identifier le virus du sida.
 À la Pitié-Salpêtrière, il rencontre notamment Bernard Duflo (1943-1988), médecin, lui aussi professeur à la Faculté de médecine de l’hôpital, puis maître de conférence agrégé à l’École nationale de médecine et de pharmacie de Bamako (Mali), initiateur de la médecine interne à l’hôpital du Point G à Bamako, dès 1975, créateur du département d'hématologie. Marc Gentilini co-écrira Médecine tropicale avec Bernard Duflo.
-Professeur de médecine, spécialiste des maladies infectieuses, Marc Gentilini crée en 1988, avec quelques médecins français et étrangers confrontés à l’épidémie de VIH, l’Organisation Pan Africaine de Lutte contre le Sida (OPALS)[2]. L’objectif est de mettre à disposition des personnes infectées par le VIH vivant dans les pays du Sud, les médicaments disponibles au Nord.
-Il est membre de l’Académie de Médecine depuis 1991 qu’il a présidé en 2008. Il est aussi élu membre libre de l'Académie des Sciences d'Outre-Mer[3] depuis le 6 décembre 1996.
+Professeur de médecine, spécialiste des maladies infectieuses, Marc Gentilini crée en 1988, avec quelques médecins français et étrangers confrontés à l’épidémie de VIH, l’Organisation Pan Africaine de Lutte contre le Sida (OPALS). L’objectif est de mettre à disposition des personnes infectées par le VIH vivant dans les pays du Sud, les médicaments disponibles au Nord.
+Il est membre de l’Académie de Médecine depuis 1991 qu’il a présidé en 2008. Il est aussi élu membre libre de l'Académie des Sciences d'Outre-Mer depuis le 6 décembre 1996.
 </t>
         </is>
       </c>
@@ -545,14 +559,16 @@
           <t>Engagements publics et associatifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En juin 1997, Marc Gentilini est élu Président de la Croix-Rouge française et exerce cette fonction jusqu'en 2004.
 Il est président-fondateur l’Organisation Pan Africaine de Lutte contre le Sida (OPALS).
 Il est membre du Conseil économique, social et environnemental de 2002 à 2010. Il y rédige un avis critique en 2006 sur la « coopération sanitaire française dans les pays en voie de développement ».
 Il est ancien Membre de la Commission Nationale Consultative des Droits de l'Homme et ancien Membre du premier collège de la Haute Autorité de lutte contre les discriminations et pour l'égalité de sa création en 2005 jusqu'en 2007.
-Il a été président de l'Académie de l'Eau de 2002 à 2013[4].
-Il est délégué général de la fondation Chirac[5] pour l'accès aux médicaments et à une santé de qualité depuis 2009.
+Il a été président de l'Académie de l'Eau de 2002 à 2013.
+Il est délégué général de la fondation Chirac pour l'accès aux médicaments et à une santé de qualité depuis 2009.
 Il est également membre du comité de parrainage de l'Association française pour l'information scientifique (AFIS) depuis 2017.
 </t>
         </is>
@@ -582,10 +598,12 @@
           <t>Distinctions et décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commandeur de l'Ordre national du Mérite[6].
-Il fut élevé, en 2003, au rang de Grand officier de la Légion d’Honneur[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commandeur de l'Ordre national du Mérite.
+Il fut élevé, en 2003, au rang de Grand officier de la Légion d’Honneur.
 </t>
         </is>
       </c>
